--- a/example_input_datasets/status over time.xlsx
+++ b/example_input_datasets/status over time.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="ZJaezoLW1cnouBgqFFAYQvMnPxGjtUSSOJsnITehSK4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="OGGWmvgNwMzEvaPzcTooNNYMhkGc9P5rB+6urJoFM5Y="/>
     </ext>
   </extLst>
 </workbook>
